--- a/Excel/镇魂街/模板.xlsx
+++ b/Excel/镇魂街/模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>sheet名</t>
   </si>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>表注释</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常驻内存</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -568,7 +572,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -590,8 +594,11 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -599,8 +606,9 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -608,8 +616,9 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -617,8 +626,9 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -626,8 +636,9 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
